--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,69; 13,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,57; 19,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>16,52; 22,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>15,03; 20,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,04; 14,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>15,88; 19,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>16,29; 21,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>18,15; 22,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,08; 13,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>16,07; 19,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,92; 20,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>17,49; 21,0</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,43; 4,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,82; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,79; 6,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,46; 8,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,23; 2,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,23; 3,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,16; 5,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,23; 4,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,09; 3,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,78; 3,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>4,28; 5,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,12; 6,43</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,95; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,62; 5,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,34; 6,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,31; 7,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,67; 3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,64; 3,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,92; 3,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,69; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,99; 2,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,31; 3,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,9; 4,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,2; 5,04</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,39; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,52; 9,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,93; 9,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,52; 9,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,95; 8,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,51; 8,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,3; 6,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,28; 8,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,49; 8,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,39; 8,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,53</t>
+          <t>15,07; 20,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,41</t>
+          <t>18,32; 22,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,0</t>
+          <t>17,48; 21,04</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,63</t>
+          <t>4,7; 7,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 4,72</t>
+          <t>2,57; 4,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 6,43</t>
+          <t>4,22; 6,04</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,82</t>
+          <t>4,29; 7,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,58</t>
+          <t>1,66; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,04</t>
+          <t>3,21; 5,07</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 9,81</t>
+          <t>6,44; 9,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,02</t>
+          <t>5,68; 7,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,57</t>
+          <t>6,51; 8,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 13,36</t>
+          <t>9,84; 13,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 19,91</t>
+          <t>14,68; 19,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,02</t>
+          <t>16,52; 22,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 20,61</t>
+          <t>14,76; 20,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,71</t>
+          <t>11,11; 14,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 19,94</t>
+          <t>15,93; 20,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,66</t>
+          <t>16,11; 21,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,53</t>
+          <t>18,46; 22,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,08; 13,68</t>
+          <t>10,78; 13,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 19,24</t>
+          <t>15,85; 19,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 20,96</t>
+          <t>16,89; 21,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,48; 21,04</t>
+          <t>17,55; 20,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,12</t>
+          <t>2,48; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,59</t>
+          <t>2,81; 4,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,89</t>
+          <t>4,82; 6,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,99</t>
+          <t>4,74; 7,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,54</t>
+          <t>1,2; 2,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,93</t>
+          <t>2,26; 3,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,12</t>
+          <t>3,26; 5,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,51</t>
+          <t>2,66; 4,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,11</t>
+          <t>1,96; 3,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,93</t>
+          <t>2,74; 3,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 5,65</t>
+          <t>4,26; 5,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,04</t>
+          <t>4,16; 6,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,56</t>
+          <t>0,92; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,13</t>
+          <t>1,59; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,32</t>
+          <t>2,29; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,84</t>
+          <t>4,28; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,09</t>
+          <t>0,66; 3,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,4</t>
+          <t>0,6; 3,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,25</t>
+          <t>0,92; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,49</t>
+          <t>1,65; 3,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,67</t>
+          <t>1,07; 2,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,54</t>
+          <t>1,37; 3,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,18</t>
+          <t>1,93; 4,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,07</t>
+          <t>3,24; 5,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,85; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,29</t>
+          <t>6,41; 8,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 9,45</t>
+          <t>7,46; 9,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,28</t>
+          <t>6,43; 9,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,26; 7,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 9,41</t>
+          <t>7,56; 9,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 8,83</t>
+          <t>7,0; 8,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 7,75</t>
+          <t>5,68; 7,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,44</t>
+          <t>5,24; 6,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 8,7</t>
+          <t>7,22; 8,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,86</t>
+          <t>7,43; 8,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,21</t>
+          <t>6,55; 8,24</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>118572</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166407</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>143574</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90663</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>168780</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>239552</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>186410</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>152968</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>287353</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>405958</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>329985</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>243631</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>101474; 140457</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>142987; 194416</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>124648; 166157</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75851; 105153</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>146158; 196744</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>212482; 268852</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>160209; 216499</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>138815; 169843</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>253011; 317521</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>365823; 440992</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>295393; 369016</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>222230; 264829</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54246</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69868</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>118951</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>153186</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29022</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>52429</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>81251</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84091</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83268</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122297</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>200202</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>237277</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41928; 68458</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55013; 87614</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>100140; 141888</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>108573; 181687</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19023; 40610</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>39641; 69357</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>64878; 102219</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59589; 101709</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64356; 101026</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>101651; 147637</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>173057; 230882</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>188288; 274566</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10210</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13796</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20415</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37627</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7413</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7060</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16068</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17623</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20856</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30696</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53695</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5069; 18922</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7624; 23626</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12551; 31843</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27659; 51211</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3155; 14974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2758; 15338</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5066; 18008</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10893; 22552</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10971; 28022</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12865; 33504</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21156; 45684</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42398; 67421</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>250071</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>282941</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>281476</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>205215</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>299041</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>277943</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>253127</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>549111</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>560883</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>534603</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>158970; 209442</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>218978; 282016</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>251885; 315788</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>221870; 321025</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>177613; 237097</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>267696; 336316</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>247113; 312817</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>207261; 282209</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>349023; 424353</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>502580; 592217</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>513543; 607075</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>464865; 584862</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>